--- a/1 NHI impact/output/sfig_03_pta_overall.xlsx
+++ b/1 NHI impact/output/sfig_03_pta_overall.xlsx
@@ -2378,10 +2378,10 @@
         <v>83.19629211153465</v>
       </c>
       <c r="E58">
-        <v>961.3629963827349</v>
+        <v>961.3629963827351</v>
       </c>
       <c r="F58">
-        <v>1294.433941454161</v>
+        <v>1294.433941454162</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4093,10 +4093,10 @@
         <v>0.1227207506276246</v>
       </c>
       <c r="E107">
-        <v>2.295882711017515</v>
+        <v>2.295882711017514</v>
       </c>
       <c r="F107">
-        <v>2.787187255415001</v>
+        <v>2.787187255415002</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         <v>223</v>
       </c>
       <c r="D137">
-        <v>0.003506622653956573</v>
+        <v>0.003506622653956572</v>
       </c>
       <c r="E137">
-        <v>0.09356211986351028</v>
+        <v>0.09356211986351029</v>
       </c>
       <c r="F137">
-        <v>0.1073831742570108</v>
+        <v>0.1073831742570107</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
